--- a/mods.xlsx
+++ b/mods.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\KSP_win64\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\GPTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A5F1F3-9BEF-4EE9-9288-E15FCD5AFEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD19CBC-6D59-4B4D-B81D-55C8AE818D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="756" windowWidth="23040" windowHeight="11604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="241">
   <si>
     <t>USI Sounding Rockets</t>
   </si>
@@ -735,6 +735,30 @@
   </si>
   <si>
     <t>Another workshop/extraplanetary construction option</t>
+  </si>
+  <si>
+    <t>Knes</t>
+  </si>
+  <si>
+    <t>1.9.9</t>
+  </si>
+  <si>
+    <t>https://github.com/AstroWell/Knes/releases</t>
+  </si>
+  <si>
+    <t>Completely NonAggressive Rocketry</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>https://github.com/DylanSemrau/CompletelyNonAggressiveRocketry/releases</t>
+  </si>
+  <si>
+    <t>Mostly works quite well with some good early rockets, but a few odd parts; overpowered rcs units placed in Electric Engine Concepts on the logic that we could imagine they're resistojets?</t>
+  </si>
+  <si>
+    <t>Provides some good early rockets, though the command parts don't quite fit.</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1091,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D88" sqref="C82:D88"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1963,8 +1987,33 @@
         <v>232</v>
       </c>
     </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72" t="s">
+        <v>239</v>
+      </c>
+    </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C73" s="2"/>
+      <c r="A73" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C91" s="2"/>
@@ -2046,6 +2095,8 @@
     <hyperlink ref="C30" r:id="rId61" xr:uid="{73F384B8-A259-468E-998F-F8B8793D348A}"/>
     <hyperlink ref="C70" r:id="rId62" xr:uid="{1BFFE1AC-A674-4F72-BFC7-867119D838A9}"/>
     <hyperlink ref="C71" r:id="rId63" xr:uid="{7A7261F3-7FE5-4937-A8E4-70A10A8F0DB7}"/>
+    <hyperlink ref="C72" r:id="rId64" xr:uid="{2A772898-BC4E-4F6C-89D0-B4B02B9514F6}"/>
+    <hyperlink ref="C73" r:id="rId65" xr:uid="{85CA4870-4CA2-4642-9C15-C46CFFA0B519}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mods.xlsx
+++ b/mods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\GPTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD19CBC-6D59-4B4D-B81D-55C8AE818D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93519964-3618-4C40-95D9-36FF66B40018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="756" windowWidth="23040" windowHeight="11604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="260">
   <si>
     <t>USI Sounding Rockets</t>
   </si>
@@ -759,6 +759,63 @@
   </si>
   <si>
     <t>Provides some good early rockets, though the command parts don't quite fit.</t>
+  </si>
+  <si>
+    <t>wacapella</t>
+  </si>
+  <si>
+    <t>modular launch pads</t>
+  </si>
+  <si>
+    <t>kerbalism</t>
+  </si>
+  <si>
+    <t>blueshift</t>
+  </si>
+  <si>
+    <t>KSP-IE</t>
+  </si>
+  <si>
+    <t>Heisenberg</t>
+  </si>
+  <si>
+    <t>Not supported yet but I want to look into it:</t>
+  </si>
+  <si>
+    <t>OPT Spaceplane Continued/Streamlined</t>
+  </si>
+  <si>
+    <t>Boring Crew Services</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>https://github.com/zorg2044/BoringCrewServices/releases</t>
+  </si>
+  <si>
+    <t>maybe wanna wait til the beta is a tad more stable</t>
+  </si>
+  <si>
+    <t>Could probably do with a whole little balloons branch, is kerballoons still working?</t>
+  </si>
+  <si>
+    <t>might be implementing its own nodes?</t>
+  </si>
+  <si>
+    <t>0.18.0</t>
+  </si>
+  <si>
+    <t>TAC Life Support</t>
+  </si>
+  <si>
+    <t>https://github.com/KSP-RO/TacLifeSupport/releases</t>
+  </si>
+  <si>
+    <t>Parts added, not sure how well the overall balance is for other parts</t>
+  </si>
+  <si>
+    <t>Airbags placed in advanced parachutes for now</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2015,16 +2072,93 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>256</v>
+      </c>
+      <c r="B75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>248</v>
+      </c>
+      <c r="D81" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>246</v>
+      </c>
+      <c r="D86" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C91" s="2"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C95" s="2"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.3">
@@ -2097,6 +2231,8 @@
     <hyperlink ref="C71" r:id="rId63" xr:uid="{7A7261F3-7FE5-4937-A8E4-70A10A8F0DB7}"/>
     <hyperlink ref="C72" r:id="rId64" xr:uid="{2A772898-BC4E-4F6C-89D0-B4B02B9514F6}"/>
     <hyperlink ref="C73" r:id="rId65" xr:uid="{85CA4870-4CA2-4642-9C15-C46CFFA0B519}"/>
+    <hyperlink ref="C74" r:id="rId66" xr:uid="{E9EA37BB-C2A6-4D60-9078-5E7F184BB6B5}"/>
+    <hyperlink ref="C75" r:id="rId67" xr:uid="{30548A2B-5728-4A28-8EF7-C90B3528106E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mods.xlsx
+++ b/mods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\GPTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93519964-3618-4C40-95D9-36FF66B40018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D35D019-3DF5-4BFC-94D1-395EAA1EA2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="756" windowWidth="23040" windowHeight="11604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="648" windowWidth="23040" windowHeight="11604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="293">
   <si>
     <t>USI Sounding Rockets</t>
   </si>
@@ -731,9 +731,6 @@
     <t>https://github.com/Angel-125/Sandcastle/releases</t>
   </si>
   <si>
-    <t>Just stuck the antigrav engines in antimatter manipulation for now</t>
-  </si>
-  <si>
     <t>Another workshop/extraplanetary construction option</t>
   </si>
   <si>
@@ -761,27 +758,18 @@
     <t>Provides some good early rockets, though the command parts don't quite fit.</t>
   </si>
   <si>
-    <t>wacapella</t>
-  </si>
-  <si>
     <t>modular launch pads</t>
   </si>
   <si>
     <t>kerbalism</t>
   </si>
   <si>
-    <t>blueshift</t>
-  </si>
-  <si>
     <t>KSP-IE</t>
   </si>
   <si>
     <t>Heisenberg</t>
   </si>
   <si>
-    <t>Not supported yet but I want to look into it:</t>
-  </si>
-  <si>
     <t>OPT Spaceplane Continued/Streamlined</t>
   </si>
   <si>
@@ -816,6 +804,117 @@
   </si>
   <si>
     <t>Airbags placed in advanced parachutes for now</t>
+  </si>
+  <si>
+    <t>Kerballoons</t>
+  </si>
+  <si>
+    <t>pathfinder</t>
+  </si>
+  <si>
+    <t>looks like a big job, not a big priority just now</t>
+  </si>
+  <si>
+    <t>b9</t>
+  </si>
+  <si>
+    <t>Not supported yet but requested/want to look into it:</t>
+  </si>
+  <si>
+    <t>will need to see how well it fits</t>
+  </si>
+  <si>
+    <t>CryoEngines Extensions</t>
+  </si>
+  <si>
+    <t>https://spacedock.info/mod/3452/CryoEngines%20Extensions</t>
+  </si>
+  <si>
+    <t>1.0.4</t>
+  </si>
+  <si>
+    <t>https://spacedock.info/mod/1766/Internal%20RCS</t>
+  </si>
+  <si>
+    <t>Internal RCS</t>
+  </si>
+  <si>
+    <t>1.6.0.3</t>
+  </si>
+  <si>
+    <t>https://github.com/linuxgurugamer/NRAP/releases</t>
+  </si>
+  <si>
+    <t>Artemis Construction Kit</t>
+  </si>
+  <si>
+    <t>https://github.com/benjee10/Benjee10_Orion/releases/</t>
+  </si>
+  <si>
+    <t>1.10.0</t>
+  </si>
+  <si>
+    <t>https://github.com/linuxgurugamer/KerbalSmartParts/releases</t>
+  </si>
+  <si>
+    <t>Smart Parts Continued</t>
+  </si>
+  <si>
+    <t>Radial Heat Shields</t>
+  </si>
+  <si>
+    <t>1.0.99.0</t>
+  </si>
+  <si>
+    <t>https://github.com/zer0Kerbal/RadialHeatShields/releases</t>
+  </si>
+  <si>
+    <t>ixs warpship</t>
+  </si>
+  <si>
+    <t>would be good for ftl teck, but looks like maybe a bit of work to track down how all the dependencies work; may have to wait unti I deal with KSP-IE</t>
+  </si>
+  <si>
+    <t>Main issue will be figuring out the deal with the experiments</t>
+  </si>
+  <si>
+    <t>Gonna have to wait until I feel like spending a whole day on it probably</t>
+  </si>
+  <si>
+    <t>it is still working</t>
+  </si>
+  <si>
+    <t>Blueshift</t>
+  </si>
+  <si>
+    <t>https://github.com/Angel-125/Blueshift/releases</t>
+  </si>
+  <si>
+    <t>All just go in the heat shield tech</t>
+  </si>
+  <si>
+    <t>Only mod to use the FTL tech so far</t>
+  </si>
+  <si>
+    <t>antigrav engines go in FTL for convenience</t>
+  </si>
+  <si>
+    <t>Crowds the end cryogenic techs a bit, but fit well enough</t>
+  </si>
+  <si>
+    <t>Mostly distributed in avionics</t>
+  </si>
+  <si>
+    <t>stockalike mining tech</t>
+  </si>
+  <si>
+    <t>not sure it works super well anymore but easy enough to add the parts</t>
+  </si>
+  <si>
+    <t>NRAP</t>
+  </si>
+  <si>
+    <t>Go in Mature Avionics, which is a bit earlier than they shoud with their sas but they're not really supposed to be flight parts</t>
   </si>
 </sst>
 </file>
@@ -1145,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,44 +1279,44 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>1.1399999999999999</v>
+        <v>26.5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.1399999999999999</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1236,100 +1335,100 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>26.5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1339,100 +1438,100 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17">
-        <v>20.399999999999999</v>
+        <v>203</v>
+      </c>
+      <c r="B17" t="s">
+        <v>202</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21">
-        <v>0.4</v>
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1451,788 +1550,911 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" t="s">
-        <v>171</v>
+        <v>106</v>
+      </c>
+      <c r="B27">
+        <v>20.399999999999999</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>222</v>
-      </c>
-      <c r="B30" t="s">
-        <v>223</v>
+        <v>76</v>
+      </c>
+      <c r="B30">
+        <v>0.4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="2"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>58</v>
+        <v>283</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35">
-        <v>16.100000000000001</v>
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>139</v>
+        <v>237</v>
+      </c>
+      <c r="D40" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>84</v>
+        <v>263</v>
+      </c>
+      <c r="D41" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>93</v>
+        <v>217</v>
+      </c>
+      <c r="D43" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" t="s">
-        <v>95</v>
+        <v>176</v>
+      </c>
+      <c r="B44">
+        <v>1.4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>103</v>
+        <v>186</v>
+      </c>
+      <c r="D46" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47">
-        <v>1.29</v>
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>124</v>
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="B48">
-        <v>1.1200000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>126</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49">
-        <v>7.13</v>
+        <v>138</v>
+      </c>
+      <c r="B49" t="s">
+        <v>140</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B50">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="B53">
+        <v>1.29</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>146</v>
+        <v>234</v>
+      </c>
+      <c r="D54" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
+      </c>
+      <c r="D56" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="D57" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59">
-        <v>1.4</v>
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>180</v>
+        <v>268</v>
+      </c>
+      <c r="D60" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D64" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" t="s">
-        <v>56</v>
+        <v>121</v>
+      </c>
+      <c r="B65">
+        <v>1.1299999999999999</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="D65" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>213</v>
+        <v>166</v>
+      </c>
+      <c r="D66" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>213</v>
+        <v>230</v>
+      </c>
+      <c r="D67" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D68" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>273</v>
+      </c>
+      <c r="B69" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="D69" t="s">
-        <v>218</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D70" t="s">
-        <v>231</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="B71" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D71" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="D73" t="s">
-        <v>240</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D74" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>257</v>
+        <v>51</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>258</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>247</v>
+        <v>62</v>
+      </c>
+      <c r="B79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>241</v>
+        <v>119</v>
+      </c>
+      <c r="B80">
+        <v>7.13</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>248</v>
-      </c>
-      <c r="D81" t="s">
-        <v>252</v>
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>244</v>
+      </c>
+      <c r="D88" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>241</v>
+      </c>
+      <c r="D90" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>242</v>
       </c>
-      <c r="D82" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="D91" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>246</v>
-      </c>
-      <c r="D86" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C91" s="2"/>
+      <c r="D92" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C93" s="2"/>
+      <c r="A93" t="s">
+        <v>256</v>
+      </c>
+      <c r="D93" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C94" s="2"/>
+      <c r="A94" t="s">
+        <v>257</v>
+      </c>
+      <c r="D94" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C95" s="2"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="2"/>
+      <c r="A95" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>277</v>
+      </c>
+      <c r="D96" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>289</v>
+      </c>
+      <c r="D97" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C99" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C107" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{D2ED0C05-3280-46F7-B525-55B81DE31017}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{061C828A-2197-401F-BF56-739564DAE83A}"/>
-    <hyperlink ref="C33" r:id="rId3" xr:uid="{ED8E2FC5-3923-4D1A-93E5-9EFB6DA34F8F}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{10928643-4DA1-4331-9283-B5D2CC5E23CB}"/>
-    <hyperlink ref="C16" r:id="rId5" xr:uid="{7E0228F4-E5B9-4BA2-8D33-F4F7F696B51E}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{D2ED0C05-3280-46F7-B525-55B81DE31017}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{061C828A-2197-401F-BF56-739564DAE83A}"/>
+    <hyperlink ref="C75" r:id="rId3" xr:uid="{ED8E2FC5-3923-4D1A-93E5-9EFB6DA34F8F}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{10928643-4DA1-4331-9283-B5D2CC5E23CB}"/>
+    <hyperlink ref="C19" r:id="rId5" xr:uid="{7E0228F4-E5B9-4BA2-8D33-F4F7F696B51E}"/>
     <hyperlink ref="C6" r:id="rId6" xr:uid="{67C1B1B9-ED2B-4EF2-9441-1075D5974588}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{80888D0B-2F04-45D1-B55D-8CB4F91DE465}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{218C2E2F-3574-481B-A0DE-AD3F16383AB6}"/>
-    <hyperlink ref="C8" r:id="rId9" xr:uid="{DF0B1ACB-7B04-42D7-956C-1060F7161DD0}"/>
-    <hyperlink ref="C9" r:id="rId10" xr:uid="{4C007A4B-B706-4906-BB10-D3A6C6FF049F}"/>
-    <hyperlink ref="C7" r:id="rId11" xr:uid="{942B87DD-C337-4B61-9270-A4E5C6D21E84}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{6EE661DA-F602-4D76-8941-60497ACCC9CC}"/>
-    <hyperlink ref="C20" r:id="rId13" xr:uid="{91F1C32F-2F9E-4F87-AFCC-1F9EF808E7E6}"/>
-    <hyperlink ref="C65" r:id="rId14" xr:uid="{010DF920-B9FD-4596-8DF9-D74E45B3F5D4}"/>
-    <hyperlink ref="C34" r:id="rId15" xr:uid="{4205264F-6415-40B8-BEEB-9CCFF7BD80A9}"/>
-    <hyperlink ref="C35" r:id="rId16" xr:uid="{7D129D41-4235-45C0-B31D-F25A52488371}"/>
-    <hyperlink ref="C36" r:id="rId17" xr:uid="{AF3921B6-DE65-4301-9831-8C4B58859ADA}"/>
-    <hyperlink ref="C37" r:id="rId18" xr:uid="{1CE2E3C8-DA35-44C5-B2E5-70F8469A22E8}"/>
-    <hyperlink ref="C11" r:id="rId19" xr:uid="{81D16863-F5C7-4188-BAF8-DFBFFD496A9C}"/>
-    <hyperlink ref="C38" r:id="rId20" xr:uid="{7CFAD228-CD2F-4816-ACC9-D6D9C497BF92}"/>
-    <hyperlink ref="C21" r:id="rId21" xr:uid="{A93489AC-1CF5-4FD8-9271-1F8F31414402}"/>
-    <hyperlink ref="C62" r:id="rId22" xr:uid="{AA2DBAC9-FE58-4581-A901-B3002AF577A9}"/>
-    <hyperlink ref="C41" r:id="rId23" xr:uid="{E9D4D461-6D98-481C-96D5-5D575997AE27}"/>
-    <hyperlink ref="C39" r:id="rId24" xr:uid="{30F0EAAC-9BB0-4F54-8655-ACC50854BEBC}"/>
-    <hyperlink ref="C42" r:id="rId25" xr:uid="{08E27427-2272-4CA4-8939-10100C7DFBEC}"/>
-    <hyperlink ref="C43" r:id="rId26" xr:uid="{09DA0F56-9808-4ECE-86E0-0723AEEF7017}"/>
-    <hyperlink ref="C45" r:id="rId27" xr:uid="{2476FCFB-4CD0-4227-9592-495BB9A84741}"/>
-    <hyperlink ref="C44" r:id="rId28" xr:uid="{0CF90EAB-84F8-4F4E-9F4E-34FC78A0EB4D}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{80888D0B-2F04-45D1-B55D-8CB4F91DE465}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{218C2E2F-3574-481B-A0DE-AD3F16383AB6}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{DF0B1ACB-7B04-42D7-956C-1060F7161DD0}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{4C007A4B-B706-4906-BB10-D3A6C6FF049F}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{942B87DD-C337-4B61-9270-A4E5C6D21E84}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{6EE661DA-F602-4D76-8941-60497ACCC9CC}"/>
+    <hyperlink ref="C29" r:id="rId13" xr:uid="{91F1C32F-2F9E-4F87-AFCC-1F9EF808E7E6}"/>
+    <hyperlink ref="C42" r:id="rId14" xr:uid="{010DF920-B9FD-4596-8DF9-D74E45B3F5D4}"/>
+    <hyperlink ref="C76" r:id="rId15" xr:uid="{4205264F-6415-40B8-BEEB-9CCFF7BD80A9}"/>
+    <hyperlink ref="C77" r:id="rId16" xr:uid="{7D129D41-4235-45C0-B31D-F25A52488371}"/>
+    <hyperlink ref="C79" r:id="rId17" xr:uid="{AF3921B6-DE65-4301-9831-8C4B58859ADA}"/>
+    <hyperlink ref="C78" r:id="rId18" xr:uid="{1CE2E3C8-DA35-44C5-B2E5-70F8469A22E8}"/>
+    <hyperlink ref="C7" r:id="rId19" xr:uid="{81D16863-F5C7-4188-BAF8-DFBFFD496A9C}"/>
+    <hyperlink ref="C63" r:id="rId20" xr:uid="{7CFAD228-CD2F-4816-ACC9-D6D9C497BF92}"/>
+    <hyperlink ref="C30" r:id="rId21" xr:uid="{A93489AC-1CF5-4FD8-9271-1F8F31414402}"/>
+    <hyperlink ref="C35" r:id="rId22" xr:uid="{AA2DBAC9-FE58-4581-A901-B3002AF577A9}"/>
+    <hyperlink ref="C68" r:id="rId23" xr:uid="{E9D4D461-6D98-481C-96D5-5D575997AE27}"/>
+    <hyperlink ref="C45" r:id="rId24" xr:uid="{30F0EAAC-9BB0-4F54-8655-ACC50854BEBC}"/>
+    <hyperlink ref="C47" r:id="rId25" xr:uid="{08E27427-2272-4CA4-8939-10100C7DFBEC}"/>
+    <hyperlink ref="C81" r:id="rId26" xr:uid="{09DA0F56-9808-4ECE-86E0-0723AEEF7017}"/>
+    <hyperlink ref="C73" r:id="rId27" xr:uid="{2476FCFB-4CD0-4227-9592-495BB9A84741}"/>
+    <hyperlink ref="C52" r:id="rId28" xr:uid="{0CF90EAB-84F8-4F4E-9F4E-34FC78A0EB4D}"/>
     <hyperlink ref="C23" r:id="rId29" xr:uid="{7275F624-0BBC-46CA-A9F0-949E0DD047ED}"/>
-    <hyperlink ref="C46" r:id="rId30" xr:uid="{A5D07C88-0C1F-4AA1-B5D1-9951C41DE5BC}"/>
-    <hyperlink ref="C17" r:id="rId31" xr:uid="{8DE9C63D-3016-43CF-BCB3-AFC0BB93FBF8}"/>
-    <hyperlink ref="C22" r:id="rId32" xr:uid="{B1F0AC9E-B50C-4E93-995F-42BDB401060D}"/>
-    <hyperlink ref="C25" r:id="rId33" xr:uid="{0087B7C3-9C7E-45AB-81BF-E44FDD3DF8C9}"/>
-    <hyperlink ref="C49" r:id="rId34" xr:uid="{F1526E0C-EE5D-4505-A75D-7F7185F658F3}"/>
-    <hyperlink ref="C50" r:id="rId35" xr:uid="{50CD6BB4-8405-4CE5-912C-55115176AA29}"/>
-    <hyperlink ref="C47" r:id="rId36" xr:uid="{6E97964D-B6AF-44B0-A2E5-949B0FBA34C1}"/>
-    <hyperlink ref="C48" r:id="rId37" xr:uid="{AB703B44-7685-4925-97D3-494CE240F479}"/>
-    <hyperlink ref="C51" r:id="rId38" xr:uid="{63AD5C93-4D38-4791-9FC8-F4FA0160F62E}"/>
-    <hyperlink ref="C52" r:id="rId39" xr:uid="{FF44FF06-7765-41BC-8629-359BCC8DBCDA}"/>
-    <hyperlink ref="C53" r:id="rId40" xr:uid="{E2E4DF4A-78AA-4AB9-9859-C3579EE05709}"/>
-    <hyperlink ref="C40" r:id="rId41" xr:uid="{9C38DF48-606E-4554-AFB0-5FBD1C127933}"/>
-    <hyperlink ref="C19" r:id="rId42" xr:uid="{B614F939-A805-4CDB-A950-F3088CE61579}"/>
-    <hyperlink ref="C54" r:id="rId43" xr:uid="{D892190A-A388-4F7D-99F4-BC3DE2D3C8E1}"/>
-    <hyperlink ref="C55" r:id="rId44" xr:uid="{A56CFE5B-A1C1-4B9B-B6FC-601A083DC40B}"/>
-    <hyperlink ref="C26" r:id="rId45" xr:uid="{8C5E1195-9B4C-4D04-9009-44262BD42C03}"/>
-    <hyperlink ref="C56" r:id="rId46" xr:uid="{551A568F-41A3-4FBC-893D-7152D7CEA0F2}"/>
-    <hyperlink ref="C58" r:id="rId47" xr:uid="{6C68369E-9E02-4051-AEB6-C253105F249D}"/>
-    <hyperlink ref="C57" r:id="rId48" xr:uid="{94429A2D-5989-4A8D-9F8F-FCB81CA75CF4}"/>
-    <hyperlink ref="C61" r:id="rId49" xr:uid="{C66778D8-7203-4DD5-81A6-87B0EDC37B94}"/>
-    <hyperlink ref="C27" r:id="rId50" xr:uid="{6C845D78-7F7E-4A8A-B1F6-018CE541BF1E}"/>
-    <hyperlink ref="C28" r:id="rId51" xr:uid="{2DA79EB2-65CD-48B6-B4DA-83381C648F0B}"/>
-    <hyperlink ref="C59" r:id="rId52" xr:uid="{5CEFD975-0E89-4174-9116-B5EE80825D3D}"/>
-    <hyperlink ref="C60" r:id="rId53" xr:uid="{6E5BC054-7481-4518-A943-A6F0F7EFA538}"/>
-    <hyperlink ref="C24" r:id="rId54" xr:uid="{9A6F9002-4D95-4AD1-BD7F-F57BA2656598}"/>
-    <hyperlink ref="C63" r:id="rId55" xr:uid="{A98344E3-157B-4536-B417-A9F99BFAD17D}"/>
-    <hyperlink ref="C18" r:id="rId56" xr:uid="{A24E507E-F328-4E72-A754-2440886B6929}"/>
-    <hyperlink ref="C29" r:id="rId57" xr:uid="{4B62998D-24DA-4CDE-8EE8-7870FD7B3A4C}"/>
-    <hyperlink ref="C66" r:id="rId58" xr:uid="{7D71669A-1CFF-4530-AEF5-46911113B5FC}"/>
-    <hyperlink ref="C67" r:id="rId59" xr:uid="{18822B28-DA43-44A4-87B0-B62E677F063F}"/>
-    <hyperlink ref="C68" r:id="rId60" xr:uid="{167F59B7-89DF-491A-A638-59D68DD07286}"/>
-    <hyperlink ref="C30" r:id="rId61" xr:uid="{73F384B8-A259-468E-998F-F8B8793D348A}"/>
-    <hyperlink ref="C70" r:id="rId62" xr:uid="{1BFFE1AC-A674-4F72-BFC7-867119D838A9}"/>
-    <hyperlink ref="C71" r:id="rId63" xr:uid="{7A7261F3-7FE5-4937-A8E4-70A10A8F0DB7}"/>
-    <hyperlink ref="C72" r:id="rId64" xr:uid="{2A772898-BC4E-4F6C-89D0-B4B02B9514F6}"/>
-    <hyperlink ref="C73" r:id="rId65" xr:uid="{85CA4870-4CA2-4642-9C15-C46CFFA0B519}"/>
-    <hyperlink ref="C74" r:id="rId66" xr:uid="{E9EA37BB-C2A6-4D60-9078-5E7F184BB6B5}"/>
-    <hyperlink ref="C75" r:id="rId67" xr:uid="{30548A2B-5728-4A28-8EF7-C90B3528106E}"/>
+    <hyperlink ref="C70" r:id="rId30" xr:uid="{A5D07C88-0C1F-4AA1-B5D1-9951C41DE5BC}"/>
+    <hyperlink ref="C27" r:id="rId31" xr:uid="{8DE9C63D-3016-43CF-BCB3-AFC0BB93FBF8}"/>
+    <hyperlink ref="C18" r:id="rId32" xr:uid="{B1F0AC9E-B50C-4E93-995F-42BDB401060D}"/>
+    <hyperlink ref="C21" r:id="rId33" xr:uid="{0087B7C3-9C7E-45AB-81BF-E44FDD3DF8C9}"/>
+    <hyperlink ref="C80" r:id="rId34" xr:uid="{F1526E0C-EE5D-4505-A75D-7F7185F658F3}"/>
+    <hyperlink ref="C65" r:id="rId35" xr:uid="{50CD6BB4-8405-4CE5-912C-55115176AA29}"/>
+    <hyperlink ref="C53" r:id="rId36" xr:uid="{6E97964D-B6AF-44B0-A2E5-949B0FBA34C1}"/>
+    <hyperlink ref="C50" r:id="rId37" xr:uid="{AB703B44-7685-4925-97D3-494CE240F479}"/>
+    <hyperlink ref="C38" r:id="rId38" xr:uid="{63AD5C93-4D38-4791-9FC8-F4FA0160F62E}"/>
+    <hyperlink ref="C59" r:id="rId39" xr:uid="{FF44FF06-7765-41BC-8629-359BCC8DBCDA}"/>
+    <hyperlink ref="C64" r:id="rId40" xr:uid="{E2E4DF4A-78AA-4AB9-9859-C3579EE05709}"/>
+    <hyperlink ref="C49" r:id="rId41" xr:uid="{9C38DF48-606E-4554-AFB0-5FBD1C127933}"/>
+    <hyperlink ref="C20" r:id="rId42" xr:uid="{B614F939-A805-4CDB-A950-F3088CE61579}"/>
+    <hyperlink ref="C61" r:id="rId43" xr:uid="{D892190A-A388-4F7D-99F4-BC3DE2D3C8E1}"/>
+    <hyperlink ref="C56" r:id="rId44" xr:uid="{A56CFE5B-A1C1-4B9B-B6FC-601A083DC40B}"/>
+    <hyperlink ref="C24" r:id="rId45" xr:uid="{8C5E1195-9B4C-4D04-9009-44262BD42C03}"/>
+    <hyperlink ref="C58" r:id="rId46" xr:uid="{551A568F-41A3-4FBC-893D-7152D7CEA0F2}"/>
+    <hyperlink ref="C71" r:id="rId47" xr:uid="{6C68369E-9E02-4051-AEB6-C253105F249D}"/>
+    <hyperlink ref="C66" r:id="rId48" xr:uid="{94429A2D-5989-4A8D-9F8F-FCB81CA75CF4}"/>
+    <hyperlink ref="C82" r:id="rId49" xr:uid="{C66778D8-7203-4DD5-81A6-87B0EDC37B94}"/>
+    <hyperlink ref="C16" r:id="rId50" xr:uid="{6C845D78-7F7E-4A8A-B1F6-018CE541BF1E}"/>
+    <hyperlink ref="C25" r:id="rId51" xr:uid="{2DA79EB2-65CD-48B6-B4DA-83381C648F0B}"/>
+    <hyperlink ref="C44" r:id="rId52" xr:uid="{5CEFD975-0E89-4174-9116-B5EE80825D3D}"/>
+    <hyperlink ref="C39" r:id="rId53" xr:uid="{6E5BC054-7481-4518-A943-A6F0F7EFA538}"/>
+    <hyperlink ref="C28" r:id="rId54" xr:uid="{9A6F9002-4D95-4AD1-BD7F-F57BA2656598}"/>
+    <hyperlink ref="C72" r:id="rId55" xr:uid="{A98344E3-157B-4536-B417-A9F99BFAD17D}"/>
+    <hyperlink ref="C17" r:id="rId56" xr:uid="{A24E507E-F328-4E72-A754-2440886B6929}"/>
+    <hyperlink ref="C22" r:id="rId57" xr:uid="{4B62998D-24DA-4CDE-8EE8-7870FD7B3A4C}"/>
+    <hyperlink ref="C37" r:id="rId58" xr:uid="{7D71669A-1CFF-4530-AEF5-46911113B5FC}"/>
+    <hyperlink ref="C55" r:id="rId59" xr:uid="{18822B28-DA43-44A4-87B0-B62E677F063F}"/>
+    <hyperlink ref="C57" r:id="rId60" xr:uid="{167F59B7-89DF-491A-A638-59D68DD07286}"/>
+    <hyperlink ref="C26" r:id="rId61" xr:uid="{73F384B8-A259-468E-998F-F8B8793D348A}"/>
+    <hyperlink ref="C51" r:id="rId62" xr:uid="{1BFFE1AC-A674-4F72-BFC7-867119D838A9}"/>
+    <hyperlink ref="C67" r:id="rId63" xr:uid="{7A7261F3-7FE5-4937-A8E4-70A10A8F0DB7}"/>
+    <hyperlink ref="C54" r:id="rId64" xr:uid="{2A772898-BC4E-4F6C-89D0-B4B02B9514F6}"/>
+    <hyperlink ref="C40" r:id="rId65" xr:uid="{85CA4870-4CA2-4642-9C15-C46CFFA0B519}"/>
+    <hyperlink ref="C36" r:id="rId66" xr:uid="{E9EA37BB-C2A6-4D60-9078-5E7F184BB6B5}"/>
+    <hyperlink ref="C74" r:id="rId67" xr:uid="{30548A2B-5728-4A28-8EF7-C90B3528106E}"/>
+    <hyperlink ref="C41" r:id="rId68" xr:uid="{CC251C66-6EA4-4A8B-A8BD-75633503CB33}"/>
+    <hyperlink ref="C48" r:id="rId69" xr:uid="{FF2736A9-1843-4574-94DE-BBF3FA76CC15}"/>
+    <hyperlink ref="C60" r:id="rId70" xr:uid="{E393F539-6207-429F-BD77-479EC2EEF672}"/>
+    <hyperlink ref="C33" r:id="rId71" xr:uid="{CFEA381C-86AA-462B-BD94-94CB1B412FB3}"/>
+    <hyperlink ref="C69" r:id="rId72" xr:uid="{E27F2CBC-C5EE-4A64-8277-6AF583CCBCE8}"/>
+    <hyperlink ref="C34" r:id="rId73" xr:uid="{8DBCF028-CD07-4EF5-BC67-9030B260F441}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mods.xlsx
+++ b/mods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\GPTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D35D019-3DF5-4BFC-94D1-395EAA1EA2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70B880D-92EE-43C2-874B-70EFD322FE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="648" windowWidth="23040" windowHeight="11604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="313">
   <si>
     <t>USI Sounding Rockets</t>
   </si>
@@ -872,9 +872,6 @@
     <t>ixs warpship</t>
   </si>
   <si>
-    <t>would be good for ftl teck, but looks like maybe a bit of work to track down how all the dependencies work; may have to wait unti I deal with KSP-IE</t>
-  </si>
-  <si>
     <t>Main issue will be figuring out the deal with the experiments</t>
   </si>
   <si>
@@ -914,7 +911,70 @@
     <t>NRAP</t>
   </si>
   <si>
-    <t>Go in Mature Avionics, which is a bit earlier than they shoud with their sas but they're not really supposed to be flight parts</t>
+    <t>sterling systems rework</t>
+  </si>
+  <si>
+    <t>world power parts could be better distributed</t>
+  </si>
+  <si>
+    <t>would be good for ftl tech, but looks like maybe a bit of work to track down how all the dependencies work; may have to wait unti I deal with KSP-IE</t>
+  </si>
+  <si>
+    <t>wacapella</t>
+  </si>
+  <si>
+    <t>Bit tricky to track down what it actually does</t>
+  </si>
+  <si>
+    <t>full USI collection</t>
+  </si>
+  <si>
+    <t>Go in Mature Avionics, which is a bit earlier than they should with their sas but they're not really supposed to be flight parts</t>
+  </si>
+  <si>
+    <t>HabTech 2</t>
+  </si>
+  <si>
+    <t>https://github.com/benjee10/HabTech2/releases</t>
+  </si>
+  <si>
+    <t>Missing History</t>
+  </si>
+  <si>
+    <t>https://spacedock.info/mod/1743/MissingHistory</t>
+  </si>
+  <si>
+    <t>1.9.3</t>
+  </si>
+  <si>
+    <t>Mk-33</t>
+  </si>
+  <si>
+    <t>A lot of essentially aesthetic parts, but I placed them as best I can</t>
+  </si>
+  <si>
+    <t>Throttle Controlled Avionics</t>
+  </si>
+  <si>
+    <t>3.8.0.1</t>
+  </si>
+  <si>
+    <t>https://github.com/allista/ThrottleControlledAvionics/releases</t>
+  </si>
+  <si>
+    <t>All in avionics, not certain how well they're balanced</t>
+  </si>
+  <si>
+    <t>Mechjeb2</t>
+  </si>
+  <si>
+    <t>https://forum.kerbalspaceprogram.com/topic/154834-112x-anatid-robotics-mumech-mechjeb-autopilot-2143-4th-march-2023/</t>
+  </si>
+  <si>
+    <t>Upgrades through the avionics tree</t>
+  </si>
+  <si>
+    <t>2.14.3.0</t>
   </si>
 </sst>
 </file>
@@ -1244,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1665,16 +1725,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s">
         <v>271</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1766,7 +1826,7 @@
         <v>263</v>
       </c>
       <c r="D41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1832,535 +1892,540 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>90</v>
+        <v>299</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>266</v>
-      </c>
-      <c r="B48">
-        <v>1.3</v>
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>265</v>
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" t="s">
-        <v>140</v>
+        <v>266</v>
+      </c>
+      <c r="B49">
+        <v>1.3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50">
-        <v>1.1200000000000001</v>
+        <v>138</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>226</v>
-      </c>
-      <c r="B51" t="s">
-        <v>227</v>
+        <v>125</v>
+      </c>
+      <c r="B51">
+        <v>1.1200000000000001</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D51" t="s">
-        <v>286</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53">
-        <v>1.29</v>
+        <v>94</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>232</v>
-      </c>
-      <c r="B54" t="s">
-        <v>233</v>
+        <v>123</v>
+      </c>
+      <c r="B54">
+        <v>1.29</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B55" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>213</v>
+        <v>234</v>
+      </c>
+      <c r="D55" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>215</v>
+        <v>310</v>
       </c>
       <c r="D57" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>302</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>160</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="D60" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>275</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>276</v>
+        <v>134</v>
       </c>
       <c r="D62" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65">
-        <v>1.1299999999999999</v>
+        <v>274</v>
+      </c>
+      <c r="B65" t="s">
+        <v>275</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="D65" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D67" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" t="s">
-        <v>83</v>
+        <v>121</v>
+      </c>
+      <c r="B68">
+        <v>1.1299999999999999</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>84</v>
+        <v>122</v>
+      </c>
+      <c r="D68" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>273</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>272</v>
+        <v>166</v>
       </c>
       <c r="D69" t="s">
-        <v>288</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>103</v>
+        <v>230</v>
+      </c>
+      <c r="D70" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
       <c r="D72" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D74" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>4</v>
+        <v>201</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77">
-        <v>16.100000000000001</v>
+        <v>252</v>
+      </c>
+      <c r="B77" t="s">
+        <v>251</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="D77" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="B80">
-        <v>7.13</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83">
+        <v>7.13</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>305</v>
+      </c>
+      <c r="B84" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>167</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B86" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>244</v>
-      </c>
-      <c r="D88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>240</v>
-      </c>
-      <c r="D89" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>241</v>
-      </c>
-      <c r="D90" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>242</v>
-      </c>
-      <c r="D91" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>243</v>
-      </c>
-      <c r="D92" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>256</v>
-      </c>
-      <c r="D93" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="D95" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="D96" t="s">
         <v>278</v>
@@ -2368,23 +2433,95 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>242</v>
+      </c>
+      <c r="D97" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>243</v>
+      </c>
+      <c r="D98" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>256</v>
+      </c>
+      <c r="D99" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>257</v>
+      </c>
+      <c r="D100" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>259</v>
+      </c>
+      <c r="D101" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>277</v>
+      </c>
+      <c r="D102" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>288</v>
+      </c>
+      <c r="D103" t="s">
         <v>289</v>
       </c>
-      <c r="D97" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C99" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>291</v>
+      </c>
+      <c r="D104" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C107" s="2"/>
+      <c r="A107" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C13" r:id="rId1" xr:uid="{D2ED0C05-3280-46F7-B525-55B81DE31017}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{061C828A-2197-401F-BF56-739564DAE83A}"/>
-    <hyperlink ref="C75" r:id="rId3" xr:uid="{ED8E2FC5-3923-4D1A-93E5-9EFB6DA34F8F}"/>
+    <hyperlink ref="C78" r:id="rId3" xr:uid="{ED8E2FC5-3923-4D1A-93E5-9EFB6DA34F8F}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{10928643-4DA1-4331-9283-B5D2CC5E23CB}"/>
     <hyperlink ref="C19" r:id="rId5" xr:uid="{7E0228F4-E5B9-4BA2-8D33-F4F7F696B51E}"/>
     <hyperlink ref="C6" r:id="rId6" xr:uid="{67C1B1B9-ED2B-4EF2-9441-1075D5974588}"/>
@@ -2396,66 +2533,71 @@
     <hyperlink ref="C12" r:id="rId12" xr:uid="{6EE661DA-F602-4D76-8941-60497ACCC9CC}"/>
     <hyperlink ref="C29" r:id="rId13" xr:uid="{91F1C32F-2F9E-4F87-AFCC-1F9EF808E7E6}"/>
     <hyperlink ref="C42" r:id="rId14" xr:uid="{010DF920-B9FD-4596-8DF9-D74E45B3F5D4}"/>
-    <hyperlink ref="C76" r:id="rId15" xr:uid="{4205264F-6415-40B8-BEEB-9CCFF7BD80A9}"/>
-    <hyperlink ref="C77" r:id="rId16" xr:uid="{7D129D41-4235-45C0-B31D-F25A52488371}"/>
-    <hyperlink ref="C79" r:id="rId17" xr:uid="{AF3921B6-DE65-4301-9831-8C4B58859ADA}"/>
-    <hyperlink ref="C78" r:id="rId18" xr:uid="{1CE2E3C8-DA35-44C5-B2E5-70F8469A22E8}"/>
+    <hyperlink ref="C79" r:id="rId15" xr:uid="{4205264F-6415-40B8-BEEB-9CCFF7BD80A9}"/>
+    <hyperlink ref="C80" r:id="rId16" xr:uid="{7D129D41-4235-45C0-B31D-F25A52488371}"/>
+    <hyperlink ref="C82" r:id="rId17" xr:uid="{AF3921B6-DE65-4301-9831-8C4B58859ADA}"/>
+    <hyperlink ref="C81" r:id="rId18" xr:uid="{1CE2E3C8-DA35-44C5-B2E5-70F8469A22E8}"/>
     <hyperlink ref="C7" r:id="rId19" xr:uid="{81D16863-F5C7-4188-BAF8-DFBFFD496A9C}"/>
-    <hyperlink ref="C63" r:id="rId20" xr:uid="{7CFAD228-CD2F-4816-ACC9-D6D9C497BF92}"/>
+    <hyperlink ref="C66" r:id="rId20" xr:uid="{7CFAD228-CD2F-4816-ACC9-D6D9C497BF92}"/>
     <hyperlink ref="C30" r:id="rId21" xr:uid="{A93489AC-1CF5-4FD8-9271-1F8F31414402}"/>
     <hyperlink ref="C35" r:id="rId22" xr:uid="{AA2DBAC9-FE58-4581-A901-B3002AF577A9}"/>
-    <hyperlink ref="C68" r:id="rId23" xr:uid="{E9D4D461-6D98-481C-96D5-5D575997AE27}"/>
+    <hyperlink ref="C71" r:id="rId23" xr:uid="{E9D4D461-6D98-481C-96D5-5D575997AE27}"/>
     <hyperlink ref="C45" r:id="rId24" xr:uid="{30F0EAAC-9BB0-4F54-8655-ACC50854BEBC}"/>
-    <hyperlink ref="C47" r:id="rId25" xr:uid="{08E27427-2272-4CA4-8939-10100C7DFBEC}"/>
-    <hyperlink ref="C81" r:id="rId26" xr:uid="{09DA0F56-9808-4ECE-86E0-0723AEEF7017}"/>
-    <hyperlink ref="C73" r:id="rId27" xr:uid="{2476FCFB-4CD0-4227-9592-495BB9A84741}"/>
-    <hyperlink ref="C52" r:id="rId28" xr:uid="{0CF90EAB-84F8-4F4E-9F4E-34FC78A0EB4D}"/>
+    <hyperlink ref="C48" r:id="rId25" xr:uid="{08E27427-2272-4CA4-8939-10100C7DFBEC}"/>
+    <hyperlink ref="C85" r:id="rId26" xr:uid="{09DA0F56-9808-4ECE-86E0-0723AEEF7017}"/>
+    <hyperlink ref="C76" r:id="rId27" xr:uid="{2476FCFB-4CD0-4227-9592-495BB9A84741}"/>
+    <hyperlink ref="C53" r:id="rId28" xr:uid="{0CF90EAB-84F8-4F4E-9F4E-34FC78A0EB4D}"/>
     <hyperlink ref="C23" r:id="rId29" xr:uid="{7275F624-0BBC-46CA-A9F0-949E0DD047ED}"/>
-    <hyperlink ref="C70" r:id="rId30" xr:uid="{A5D07C88-0C1F-4AA1-B5D1-9951C41DE5BC}"/>
+    <hyperlink ref="C73" r:id="rId30" xr:uid="{A5D07C88-0C1F-4AA1-B5D1-9951C41DE5BC}"/>
     <hyperlink ref="C27" r:id="rId31" xr:uid="{8DE9C63D-3016-43CF-BCB3-AFC0BB93FBF8}"/>
     <hyperlink ref="C18" r:id="rId32" xr:uid="{B1F0AC9E-B50C-4E93-995F-42BDB401060D}"/>
     <hyperlink ref="C21" r:id="rId33" xr:uid="{0087B7C3-9C7E-45AB-81BF-E44FDD3DF8C9}"/>
-    <hyperlink ref="C80" r:id="rId34" xr:uid="{F1526E0C-EE5D-4505-A75D-7F7185F658F3}"/>
-    <hyperlink ref="C65" r:id="rId35" xr:uid="{50CD6BB4-8405-4CE5-912C-55115176AA29}"/>
-    <hyperlink ref="C53" r:id="rId36" xr:uid="{6E97964D-B6AF-44B0-A2E5-949B0FBA34C1}"/>
-    <hyperlink ref="C50" r:id="rId37" xr:uid="{AB703B44-7685-4925-97D3-494CE240F479}"/>
+    <hyperlink ref="C83" r:id="rId34" xr:uid="{F1526E0C-EE5D-4505-A75D-7F7185F658F3}"/>
+    <hyperlink ref="C68" r:id="rId35" xr:uid="{50CD6BB4-8405-4CE5-912C-55115176AA29}"/>
+    <hyperlink ref="C54" r:id="rId36" xr:uid="{6E97964D-B6AF-44B0-A2E5-949B0FBA34C1}"/>
+    <hyperlink ref="C51" r:id="rId37" xr:uid="{AB703B44-7685-4925-97D3-494CE240F479}"/>
     <hyperlink ref="C38" r:id="rId38" xr:uid="{63AD5C93-4D38-4791-9FC8-F4FA0160F62E}"/>
-    <hyperlink ref="C59" r:id="rId39" xr:uid="{FF44FF06-7765-41BC-8629-359BCC8DBCDA}"/>
-    <hyperlink ref="C64" r:id="rId40" xr:uid="{E2E4DF4A-78AA-4AB9-9859-C3579EE05709}"/>
-    <hyperlink ref="C49" r:id="rId41" xr:uid="{9C38DF48-606E-4554-AFB0-5FBD1C127933}"/>
+    <hyperlink ref="C62" r:id="rId39" xr:uid="{FF44FF06-7765-41BC-8629-359BCC8DBCDA}"/>
+    <hyperlink ref="C67" r:id="rId40" xr:uid="{E2E4DF4A-78AA-4AB9-9859-C3579EE05709}"/>
+    <hyperlink ref="C50" r:id="rId41" xr:uid="{9C38DF48-606E-4554-AFB0-5FBD1C127933}"/>
     <hyperlink ref="C20" r:id="rId42" xr:uid="{B614F939-A805-4CDB-A950-F3088CE61579}"/>
-    <hyperlink ref="C61" r:id="rId43" xr:uid="{D892190A-A388-4F7D-99F4-BC3DE2D3C8E1}"/>
-    <hyperlink ref="C56" r:id="rId44" xr:uid="{A56CFE5B-A1C1-4B9B-B6FC-601A083DC40B}"/>
+    <hyperlink ref="C64" r:id="rId43" xr:uid="{D892190A-A388-4F7D-99F4-BC3DE2D3C8E1}"/>
+    <hyperlink ref="C59" r:id="rId44" xr:uid="{A56CFE5B-A1C1-4B9B-B6FC-601A083DC40B}"/>
     <hyperlink ref="C24" r:id="rId45" xr:uid="{8C5E1195-9B4C-4D04-9009-44262BD42C03}"/>
-    <hyperlink ref="C58" r:id="rId46" xr:uid="{551A568F-41A3-4FBC-893D-7152D7CEA0F2}"/>
-    <hyperlink ref="C71" r:id="rId47" xr:uid="{6C68369E-9E02-4051-AEB6-C253105F249D}"/>
-    <hyperlink ref="C66" r:id="rId48" xr:uid="{94429A2D-5989-4A8D-9F8F-FCB81CA75CF4}"/>
-    <hyperlink ref="C82" r:id="rId49" xr:uid="{C66778D8-7203-4DD5-81A6-87B0EDC37B94}"/>
+    <hyperlink ref="C61" r:id="rId46" xr:uid="{551A568F-41A3-4FBC-893D-7152D7CEA0F2}"/>
+    <hyperlink ref="C74" r:id="rId47" xr:uid="{6C68369E-9E02-4051-AEB6-C253105F249D}"/>
+    <hyperlink ref="C69" r:id="rId48" xr:uid="{94429A2D-5989-4A8D-9F8F-FCB81CA75CF4}"/>
+    <hyperlink ref="C86" r:id="rId49" xr:uid="{C66778D8-7203-4DD5-81A6-87B0EDC37B94}"/>
     <hyperlink ref="C16" r:id="rId50" xr:uid="{6C845D78-7F7E-4A8A-B1F6-018CE541BF1E}"/>
     <hyperlink ref="C25" r:id="rId51" xr:uid="{2DA79EB2-65CD-48B6-B4DA-83381C648F0B}"/>
     <hyperlink ref="C44" r:id="rId52" xr:uid="{5CEFD975-0E89-4174-9116-B5EE80825D3D}"/>
     <hyperlink ref="C39" r:id="rId53" xr:uid="{6E5BC054-7481-4518-A943-A6F0F7EFA538}"/>
     <hyperlink ref="C28" r:id="rId54" xr:uid="{9A6F9002-4D95-4AD1-BD7F-F57BA2656598}"/>
-    <hyperlink ref="C72" r:id="rId55" xr:uid="{A98344E3-157B-4536-B417-A9F99BFAD17D}"/>
+    <hyperlink ref="C75" r:id="rId55" xr:uid="{A98344E3-157B-4536-B417-A9F99BFAD17D}"/>
     <hyperlink ref="C17" r:id="rId56" xr:uid="{A24E507E-F328-4E72-A754-2440886B6929}"/>
     <hyperlink ref="C22" r:id="rId57" xr:uid="{4B62998D-24DA-4CDE-8EE8-7870FD7B3A4C}"/>
     <hyperlink ref="C37" r:id="rId58" xr:uid="{7D71669A-1CFF-4530-AEF5-46911113B5FC}"/>
-    <hyperlink ref="C55" r:id="rId59" xr:uid="{18822B28-DA43-44A4-87B0-B62E677F063F}"/>
-    <hyperlink ref="C57" r:id="rId60" xr:uid="{167F59B7-89DF-491A-A638-59D68DD07286}"/>
+    <hyperlink ref="C56" r:id="rId59" xr:uid="{18822B28-DA43-44A4-87B0-B62E677F063F}"/>
+    <hyperlink ref="C60" r:id="rId60" xr:uid="{167F59B7-89DF-491A-A638-59D68DD07286}"/>
     <hyperlink ref="C26" r:id="rId61" xr:uid="{73F384B8-A259-468E-998F-F8B8793D348A}"/>
-    <hyperlink ref="C51" r:id="rId62" xr:uid="{1BFFE1AC-A674-4F72-BFC7-867119D838A9}"/>
-    <hyperlink ref="C67" r:id="rId63" xr:uid="{7A7261F3-7FE5-4937-A8E4-70A10A8F0DB7}"/>
-    <hyperlink ref="C54" r:id="rId64" xr:uid="{2A772898-BC4E-4F6C-89D0-B4B02B9514F6}"/>
+    <hyperlink ref="C52" r:id="rId62" xr:uid="{1BFFE1AC-A674-4F72-BFC7-867119D838A9}"/>
+    <hyperlink ref="C70" r:id="rId63" xr:uid="{7A7261F3-7FE5-4937-A8E4-70A10A8F0DB7}"/>
+    <hyperlink ref="C55" r:id="rId64" xr:uid="{2A772898-BC4E-4F6C-89D0-B4B02B9514F6}"/>
     <hyperlink ref="C40" r:id="rId65" xr:uid="{85CA4870-4CA2-4642-9C15-C46CFFA0B519}"/>
     <hyperlink ref="C36" r:id="rId66" xr:uid="{E9EA37BB-C2A6-4D60-9078-5E7F184BB6B5}"/>
-    <hyperlink ref="C74" r:id="rId67" xr:uid="{30548A2B-5728-4A28-8EF7-C90B3528106E}"/>
+    <hyperlink ref="C77" r:id="rId67" xr:uid="{30548A2B-5728-4A28-8EF7-C90B3528106E}"/>
     <hyperlink ref="C41" r:id="rId68" xr:uid="{CC251C66-6EA4-4A8B-A8BD-75633503CB33}"/>
-    <hyperlink ref="C48" r:id="rId69" xr:uid="{FF2736A9-1843-4574-94DE-BBF3FA76CC15}"/>
-    <hyperlink ref="C60" r:id="rId70" xr:uid="{E393F539-6207-429F-BD77-479EC2EEF672}"/>
+    <hyperlink ref="C49" r:id="rId69" xr:uid="{FF2736A9-1843-4574-94DE-BBF3FA76CC15}"/>
+    <hyperlink ref="C63" r:id="rId70" xr:uid="{E393F539-6207-429F-BD77-479EC2EEF672}"/>
     <hyperlink ref="C33" r:id="rId71" xr:uid="{CFEA381C-86AA-462B-BD94-94CB1B412FB3}"/>
-    <hyperlink ref="C69" r:id="rId72" xr:uid="{E27F2CBC-C5EE-4A64-8277-6AF583CCBCE8}"/>
+    <hyperlink ref="C72" r:id="rId72" xr:uid="{E27F2CBC-C5EE-4A64-8277-6AF583CCBCE8}"/>
     <hyperlink ref="C34" r:id="rId73" xr:uid="{8DBCF028-CD07-4EF5-BC67-9030B260F441}"/>
+    <hyperlink ref="C47" r:id="rId74" xr:uid="{0B22E2BE-08E7-4783-8239-A74C0CD86305}"/>
+    <hyperlink ref="C58" r:id="rId75" xr:uid="{8A912566-9933-4B69-8EDE-F82D894AB929}"/>
+    <hyperlink ref="C84" r:id="rId76" xr:uid="{E7A99DE6-AC10-453B-80F7-E7915E9870DF}"/>
+    <hyperlink ref="C57" r:id="rId77" xr:uid="{7909BE2F-6597-4055-ADBD-7DA217A47DDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
--- a/mods.xlsx
+++ b/mods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\GPTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70B880D-92EE-43C2-874B-70EFD322FE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6309273-17E9-4F20-AE4D-71CDB79F4434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
